--- a/02_config/scenario_pv_60_hp_60_ev_60_mixed_5_transition_naive/agents.xlsx
+++ b/02_config/scenario_pv_60_hp_60_ev_60_mixed_5_transition_naive/agents.xlsx
@@ -29,12 +29,12 @@
     <t>general/bus</t>
   </si>
   <si>
+    <t>general/aggregated_by</t>
+  </si>
+  <si>
     <t>general/parameters/occupants</t>
   </si>
   <si>
-    <t>general/aggregated_by</t>
-  </si>
-  <si>
     <t>general/parameters/area</t>
   </si>
   <si>
@@ -1016,7 +1016,7 @@
     <t>sfh_38</t>
   </si>
   <si>
-    <t>5jWyt2qYQK3BhYt</t>
+    <t>IMa0zrA8e6lvTk5</t>
   </si>
   <si>
     <t>000018335.csv</t>
@@ -1562,7 +1562,7 @@
     <t>clustering_represented_group/agent_types</t>
   </si>
   <si>
-    <t>['sfh_35', 'sfh_34', 'sfh_5', 'sfh_17', 'sfh_9']</t>
+    <t>['sfh_18', 'sfh_36', 'sfh_19', 'sfh_34', 'sfh_22']</t>
   </si>
   <si>
     <t>[1]</t>
@@ -2832,7 +2832,7 @@
       <c r="E2">
         <v>21274</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>3</v>
       </c>
       <c r="H2">
@@ -3004,7 +3004,7 @@
         <v>60</v>
       </c>
       <c r="DE2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF2" t="s">
         <v>373</v>
@@ -3286,7 +3286,7 @@
         <v>488</v>
       </c>
       <c r="IN2">
-        <v>43200</v>
+        <v>72000</v>
       </c>
       <c r="IO2">
         <v>1</v>
@@ -3337,7 +3337,7 @@
         <v>0</v>
       </c>
       <c r="JG2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ2">
         <v>0</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="JL2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO2">
         <v>0</v>
@@ -3355,7 +3355,7 @@
         <v>0</v>
       </c>
       <c r="JQ2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:295">
@@ -3368,7 +3368,7 @@
       <c r="E3">
         <v>21249</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>3</v>
       </c>
       <c r="H3">
@@ -3540,7 +3540,7 @@
         <v>50</v>
       </c>
       <c r="DE3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF3" t="s">
         <v>373</v>
@@ -3795,7 +3795,7 @@
         <v>488</v>
       </c>
       <c r="IN3">
-        <v>43200</v>
+        <v>72000</v>
       </c>
       <c r="IO3">
         <v>1</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="JG3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ3">
         <v>0</v>
@@ -3855,7 +3855,7 @@
         <v>0</v>
       </c>
       <c r="JL3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO3">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="JQ3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:295">
@@ -3877,11 +3877,11 @@
       <c r="E4">
         <v>21166</v>
       </c>
-      <c r="F4">
-        <v>3</v>
+      <c r="G4">
+        <v>4</v>
       </c>
       <c r="H4">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I4">
         <v>2</v>
@@ -3890,7 +3890,7 @@
         <v>2.6</v>
       </c>
       <c r="K4">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -4034,7 +4034,7 @@
         <v>0</v>
       </c>
       <c r="DE4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF4" t="s">
         <v>373</v>
@@ -4226,7 +4226,7 @@
         <v>488</v>
       </c>
       <c r="IN4">
-        <v>43200</v>
+        <v>57600</v>
       </c>
       <c r="IO4">
         <v>1</v>
@@ -4277,7 +4277,7 @@
         <v>0</v>
       </c>
       <c r="JG4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ4">
         <v>0</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="JL4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO4">
         <v>0</v>
@@ -4295,7 +4295,7 @@
         <v>0</v>
       </c>
       <c r="JQ4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:295">
@@ -4308,11 +4308,11 @@
       <c r="E5">
         <v>20723</v>
       </c>
-      <c r="F5">
-        <v>4</v>
+      <c r="G5">
+        <v>3</v>
       </c>
       <c r="H5">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I5">
         <v>2</v>
@@ -4321,7 +4321,7 @@
         <v>2.6</v>
       </c>
       <c r="K5">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L5">
         <v>1</v>
@@ -4465,7 +4465,7 @@
         <v>0</v>
       </c>
       <c r="DE5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF5" t="s">
         <v>373</v>
@@ -4708,7 +4708,7 @@
         <v>0</v>
       </c>
       <c r="JG5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ5">
         <v>0</v>
@@ -4717,7 +4717,7 @@
         <v>0</v>
       </c>
       <c r="JL5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO5">
         <v>0</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="JQ5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:295">
@@ -4739,11 +4739,11 @@
       <c r="E6">
         <v>20561</v>
       </c>
-      <c r="F6">
-        <v>4</v>
+      <c r="G6">
+        <v>3</v>
       </c>
       <c r="H6">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I6">
         <v>2</v>
@@ -4752,7 +4752,7 @@
         <v>2.6</v>
       </c>
       <c r="K6">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -4911,7 +4911,7 @@
         <v>42</v>
       </c>
       <c r="DE6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF6" t="s">
         <v>373</v>
@@ -5139,7 +5139,7 @@
         <v>488</v>
       </c>
       <c r="IN6">
-        <v>43200</v>
+        <v>86400</v>
       </c>
       <c r="IO6">
         <v>1</v>
@@ -5190,7 +5190,7 @@
         <v>0</v>
       </c>
       <c r="JG6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ6">
         <v>0</v>
@@ -5199,7 +5199,7 @@
         <v>0</v>
       </c>
       <c r="JL6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO6">
         <v>0</v>
@@ -5208,7 +5208,7 @@
         <v>0</v>
       </c>
       <c r="JQ6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:295">
@@ -5221,11 +5221,8 @@
       <c r="E7">
         <v>20289</v>
       </c>
-      <c r="F7">
-        <v>3</v>
-      </c>
-      <c r="G7" t="s">
-        <v>333</v>
+      <c r="G7">
+        <v>3</v>
       </c>
       <c r="H7">
         <v>100</v>
@@ -5396,7 +5393,7 @@
         <v>50</v>
       </c>
       <c r="DE7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF7" t="s">
         <v>373</v>
@@ -5678,7 +5675,7 @@
         <v>488</v>
       </c>
       <c r="IN7">
-        <v>86400</v>
+        <v>72000</v>
       </c>
       <c r="IO7">
         <v>1</v>
@@ -5729,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="JG7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ7">
         <v>0</v>
@@ -5738,7 +5735,7 @@
         <v>0</v>
       </c>
       <c r="JL7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO7">
         <v>0</v>
@@ -5747,7 +5744,7 @@
         <v>0</v>
       </c>
       <c r="JQ7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:295">
@@ -5760,11 +5757,11 @@
       <c r="E8">
         <v>20136</v>
       </c>
-      <c r="F8">
-        <v>3</v>
+      <c r="G8">
+        <v>4</v>
       </c>
       <c r="H8">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I8">
         <v>2</v>
@@ -5773,7 +5770,7 @@
         <v>2.6</v>
       </c>
       <c r="K8">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L8">
         <v>1</v>
@@ -5932,7 +5929,7 @@
         <v>90</v>
       </c>
       <c r="DE8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF8" t="s">
         <v>373</v>
@@ -6214,7 +6211,7 @@
         <v>488</v>
       </c>
       <c r="IN8">
-        <v>43200</v>
+        <v>57600</v>
       </c>
       <c r="IO8">
         <v>1</v>
@@ -6271,7 +6268,7 @@
         <v>51</v>
       </c>
       <c r="JG8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JH8">
         <v>9300</v>
@@ -6286,7 +6283,7 @@
         <v>51</v>
       </c>
       <c r="JL8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO8">
         <v>0</v>
@@ -6295,7 +6292,7 @@
         <v>0</v>
       </c>
       <c r="JQ8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JR8" t="s">
         <v>501</v>
@@ -6335,11 +6332,11 @@
       <c r="E9">
         <v>19994</v>
       </c>
-      <c r="F9">
-        <v>3</v>
+      <c r="G9">
+        <v>4</v>
       </c>
       <c r="H9">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I9">
         <v>2</v>
@@ -6348,7 +6345,7 @@
         <v>2.6</v>
       </c>
       <c r="K9">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L9">
         <v>1</v>
@@ -6507,7 +6504,7 @@
         <v>46</v>
       </c>
       <c r="DE9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF9" t="s">
         <v>373</v>
@@ -6840,7 +6837,7 @@
         <v>0</v>
       </c>
       <c r="JG9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ9">
         <v>0</v>
@@ -6849,7 +6846,7 @@
         <v>0</v>
       </c>
       <c r="JL9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO9">
         <v>0</v>
@@ -6858,7 +6855,7 @@
         <v>0</v>
       </c>
       <c r="JQ9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JR9" t="s">
         <v>502</v>
@@ -6898,11 +6895,11 @@
       <c r="E10">
         <v>19849</v>
       </c>
-      <c r="F10">
-        <v>4</v>
+      <c r="G10">
+        <v>3</v>
       </c>
       <c r="H10">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I10">
         <v>2</v>
@@ -6911,7 +6908,7 @@
         <v>2.6</v>
       </c>
       <c r="K10">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L10">
         <v>1</v>
@@ -7055,7 +7052,7 @@
         <v>0</v>
       </c>
       <c r="DE10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF10" t="s">
         <v>373</v>
@@ -7298,7 +7295,7 @@
         <v>0</v>
       </c>
       <c r="JG10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ10">
         <v>0</v>
@@ -7307,7 +7304,7 @@
         <v>0</v>
       </c>
       <c r="JL10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO10">
         <v>0</v>
@@ -7316,7 +7313,7 @@
         <v>0</v>
       </c>
       <c r="JQ10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:295">
@@ -7329,14 +7326,11 @@
       <c r="E11">
         <v>19767</v>
       </c>
-      <c r="F11">
-        <v>3</v>
-      </c>
-      <c r="G11" t="s">
-        <v>333</v>
+      <c r="G11">
+        <v>4</v>
       </c>
       <c r="H11">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I11">
         <v>2</v>
@@ -7345,7 +7339,7 @@
         <v>2.6</v>
       </c>
       <c r="K11">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L11">
         <v>1</v>
@@ -7504,7 +7498,7 @@
         <v>60</v>
       </c>
       <c r="DE11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF11" t="s">
         <v>373</v>
@@ -7759,7 +7753,7 @@
         <v>488</v>
       </c>
       <c r="IN11">
-        <v>43200</v>
+        <v>86400</v>
       </c>
       <c r="IO11">
         <v>1</v>
@@ -7816,7 +7810,7 @@
         <v>59</v>
       </c>
       <c r="JG11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JH11">
         <v>8300</v>
@@ -7831,7 +7825,7 @@
         <v>60</v>
       </c>
       <c r="JL11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JM11">
         <v>6800</v>
@@ -7846,7 +7840,7 @@
         <v>57</v>
       </c>
       <c r="JQ11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:295">
@@ -7859,7 +7853,7 @@
       <c r="E12">
         <v>19761</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>4</v>
       </c>
       <c r="H12">
@@ -8016,7 +8010,7 @@
         <v>0</v>
       </c>
       <c r="DE12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF12" t="s">
         <v>373</v>
@@ -8259,7 +8253,7 @@
         <v>0</v>
       </c>
       <c r="JG12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ12">
         <v>0</v>
@@ -8268,7 +8262,7 @@
         <v>0</v>
       </c>
       <c r="JL12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO12">
         <v>0</v>
@@ -8277,7 +8271,7 @@
         <v>0</v>
       </c>
       <c r="JQ12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:295">
@@ -8290,11 +8284,11 @@
       <c r="E13">
         <v>19686</v>
       </c>
-      <c r="F13">
-        <v>4</v>
+      <c r="G13">
+        <v>3</v>
       </c>
       <c r="H13">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I13">
         <v>2</v>
@@ -8303,7 +8297,7 @@
         <v>2.6</v>
       </c>
       <c r="K13">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L13">
         <v>1</v>
@@ -8462,7 +8456,7 @@
         <v>56</v>
       </c>
       <c r="DE13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF13" t="s">
         <v>373</v>
@@ -8744,7 +8738,7 @@
         <v>488</v>
       </c>
       <c r="IN13">
-        <v>43200</v>
+        <v>72000</v>
       </c>
       <c r="IO13">
         <v>1</v>
@@ -8795,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="JG13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ13">
         <v>0</v>
@@ -8804,7 +8798,7 @@
         <v>0</v>
       </c>
       <c r="JL13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO13">
         <v>0</v>
@@ -8813,7 +8807,7 @@
         <v>0</v>
       </c>
       <c r="JQ13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:295">
@@ -8826,11 +8820,11 @@
       <c r="E14">
         <v>19522</v>
       </c>
-      <c r="F14">
-        <v>3</v>
+      <c r="G14">
+        <v>4</v>
       </c>
       <c r="H14">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I14">
         <v>2</v>
@@ -8839,7 +8833,7 @@
         <v>2.6</v>
       </c>
       <c r="K14">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L14">
         <v>1</v>
@@ -8983,7 +8977,7 @@
         <v>0</v>
       </c>
       <c r="DE14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF14" t="s">
         <v>373</v>
@@ -9175,7 +9169,7 @@
         <v>488</v>
       </c>
       <c r="IN14">
-        <v>86400</v>
+        <v>57600</v>
       </c>
       <c r="IO14">
         <v>1</v>
@@ -9226,7 +9220,7 @@
         <v>0</v>
       </c>
       <c r="JG14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ14">
         <v>0</v>
@@ -9235,7 +9229,7 @@
         <v>0</v>
       </c>
       <c r="JL14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO14">
         <v>0</v>
@@ -9244,7 +9238,7 @@
         <v>0</v>
       </c>
       <c r="JQ14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:295">
@@ -9257,7 +9251,7 @@
       <c r="E15">
         <v>19414</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>3</v>
       </c>
       <c r="H15">
@@ -9429,7 +9423,7 @@
         <v>49</v>
       </c>
       <c r="DE15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF15" t="s">
         <v>373</v>
@@ -9684,7 +9678,7 @@
         <v>488</v>
       </c>
       <c r="IN15">
-        <v>86400</v>
+        <v>72000</v>
       </c>
       <c r="IO15">
         <v>1</v>
@@ -9735,7 +9729,7 @@
         <v>0</v>
       </c>
       <c r="JG15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ15">
         <v>0</v>
@@ -9744,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="JL15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO15">
         <v>0</v>
@@ -9753,7 +9747,7 @@
         <v>0</v>
       </c>
       <c r="JQ15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:295">
@@ -9766,11 +9760,11 @@
       <c r="E16">
         <v>19288</v>
       </c>
-      <c r="F16">
-        <v>3</v>
+      <c r="G16">
+        <v>4</v>
       </c>
       <c r="H16">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I16">
         <v>2</v>
@@ -9779,7 +9773,7 @@
         <v>2.6</v>
       </c>
       <c r="K16">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L16">
         <v>1</v>
@@ -9923,7 +9917,7 @@
         <v>0</v>
       </c>
       <c r="DE16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF16" t="s">
         <v>373</v>
@@ -10115,7 +10109,7 @@
         <v>488</v>
       </c>
       <c r="IN16">
-        <v>86400</v>
+        <v>57600</v>
       </c>
       <c r="IO16">
         <v>1</v>
@@ -10166,7 +10160,7 @@
         <v>0</v>
       </c>
       <c r="JG16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ16">
         <v>0</v>
@@ -10175,7 +10169,7 @@
         <v>0</v>
       </c>
       <c r="JL16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO16">
         <v>0</v>
@@ -10184,7 +10178,7 @@
         <v>0</v>
       </c>
       <c r="JQ16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:295">
@@ -10197,11 +10191,11 @@
       <c r="E17">
         <v>19210</v>
       </c>
-      <c r="F17">
-        <v>3</v>
+      <c r="G17">
+        <v>4</v>
       </c>
       <c r="H17">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I17">
         <v>2</v>
@@ -10210,7 +10204,7 @@
         <v>2.6</v>
       </c>
       <c r="K17">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L17">
         <v>1</v>
@@ -10354,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="DE17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF17" t="s">
         <v>373</v>
@@ -10546,7 +10540,7 @@
         <v>488</v>
       </c>
       <c r="IN17">
-        <v>86400</v>
+        <v>57600</v>
       </c>
       <c r="IO17">
         <v>1</v>
@@ -10597,7 +10591,7 @@
         <v>0</v>
       </c>
       <c r="JG17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ17">
         <v>0</v>
@@ -10606,7 +10600,7 @@
         <v>0</v>
       </c>
       <c r="JL17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO17">
         <v>0</v>
@@ -10615,7 +10609,7 @@
         <v>0</v>
       </c>
       <c r="JQ17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:295">
@@ -10628,7 +10622,7 @@
       <c r="E18">
         <v>19147</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>3</v>
       </c>
       <c r="H18">
@@ -10800,7 +10794,7 @@
         <v>50</v>
       </c>
       <c r="DE18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF18" t="s">
         <v>373</v>
@@ -11133,7 +11127,7 @@
         <v>0</v>
       </c>
       <c r="JG18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ18">
         <v>0</v>
@@ -11142,7 +11136,7 @@
         <v>0</v>
       </c>
       <c r="JL18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO18">
         <v>0</v>
@@ -11151,7 +11145,7 @@
         <v>0</v>
       </c>
       <c r="JQ18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:295">
@@ -11164,11 +11158,8 @@
       <c r="E19">
         <v>19040</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>4</v>
-      </c>
-      <c r="G19" t="s">
-        <v>333</v>
       </c>
       <c r="H19">
         <v>130</v>
@@ -11324,7 +11315,7 @@
         <v>0</v>
       </c>
       <c r="DE19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF19" t="s">
         <v>373</v>
@@ -11516,7 +11507,7 @@
         <v>488</v>
       </c>
       <c r="IN19">
-        <v>43200</v>
+        <v>86400</v>
       </c>
       <c r="IO19">
         <v>1</v>
@@ -11567,7 +11558,7 @@
         <v>0</v>
       </c>
       <c r="JG19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ19">
         <v>0</v>
@@ -11576,7 +11567,7 @@
         <v>0</v>
       </c>
       <c r="JL19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO19">
         <v>0</v>
@@ -11585,7 +11576,7 @@
         <v>0</v>
       </c>
       <c r="JQ19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:295">
@@ -11598,7 +11589,10 @@
       <c r="E20">
         <v>18552</v>
       </c>
-      <c r="F20">
+      <c r="F20" t="s">
+        <v>333</v>
+      </c>
+      <c r="G20">
         <v>3</v>
       </c>
       <c r="H20">
@@ -11770,7 +11764,7 @@
         <v>47</v>
       </c>
       <c r="DE20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF20" t="s">
         <v>373</v>
@@ -12025,7 +12019,7 @@
         <v>488</v>
       </c>
       <c r="IN20">
-        <v>86400</v>
+        <v>57600</v>
       </c>
       <c r="IO20">
         <v>1</v>
@@ -12076,7 +12070,7 @@
         <v>0</v>
       </c>
       <c r="JG20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ20">
         <v>0</v>
@@ -12085,7 +12079,7 @@
         <v>0</v>
       </c>
       <c r="JL20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO20">
         <v>0</v>
@@ -12094,7 +12088,7 @@
         <v>0</v>
       </c>
       <c r="JQ20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:295">
@@ -12107,7 +12101,10 @@
       <c r="E21">
         <v>18493</v>
       </c>
-      <c r="F21">
+      <c r="F21" t="s">
+        <v>333</v>
+      </c>
+      <c r="G21">
         <v>4</v>
       </c>
       <c r="H21">
@@ -12279,7 +12276,7 @@
         <v>45</v>
       </c>
       <c r="DE21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF21" t="s">
         <v>373</v>
@@ -12585,7 +12582,7 @@
         <v>0</v>
       </c>
       <c r="JG21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ21">
         <v>0</v>
@@ -12594,7 +12591,7 @@
         <v>0</v>
       </c>
       <c r="JL21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO21">
         <v>0</v>
@@ -12603,7 +12600,7 @@
         <v>0</v>
       </c>
       <c r="JQ21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:295">
@@ -12616,11 +12613,11 @@
       <c r="E22">
         <v>18160</v>
       </c>
-      <c r="F22">
-        <v>4</v>
+      <c r="G22">
+        <v>3</v>
       </c>
       <c r="H22">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I22">
         <v>2</v>
@@ -12629,7 +12626,7 @@
         <v>2.6</v>
       </c>
       <c r="K22">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L22">
         <v>1</v>
@@ -12788,7 +12785,7 @@
         <v>90</v>
       </c>
       <c r="DE22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF22" t="s">
         <v>373</v>
@@ -13043,7 +13040,7 @@
         <v>488</v>
       </c>
       <c r="IN22">
-        <v>86400</v>
+        <v>57600</v>
       </c>
       <c r="IO22">
         <v>1</v>
@@ -13100,7 +13097,7 @@
         <v>48</v>
       </c>
       <c r="JG22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ22">
         <v>0</v>
@@ -13109,7 +13106,7 @@
         <v>0</v>
       </c>
       <c r="JL22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO22">
         <v>0</v>
@@ -13118,7 +13115,7 @@
         <v>0</v>
       </c>
       <c r="JQ22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:295">
@@ -13131,11 +13128,11 @@
       <c r="E23">
         <v>17736</v>
       </c>
-      <c r="F23">
-        <v>3</v>
+      <c r="G23">
+        <v>4</v>
       </c>
       <c r="H23">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I23">
         <v>2</v>
@@ -13144,7 +13141,7 @@
         <v>2.6</v>
       </c>
       <c r="K23">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L23">
         <v>1</v>
@@ -13303,7 +13300,7 @@
         <v>90</v>
       </c>
       <c r="DE23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF23" t="s">
         <v>373</v>
@@ -13585,7 +13582,7 @@
         <v>488</v>
       </c>
       <c r="IN23">
-        <v>43200</v>
+        <v>86400</v>
       </c>
       <c r="IO23">
         <v>1</v>
@@ -13642,7 +13639,7 @@
         <v>43</v>
       </c>
       <c r="JG23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JH23">
         <v>2800</v>
@@ -13657,7 +13654,7 @@
         <v>43</v>
       </c>
       <c r="JL23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO23">
         <v>0</v>
@@ -13666,7 +13663,7 @@
         <v>0</v>
       </c>
       <c r="JQ23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JR23" t="s">
         <v>503</v>
@@ -13706,7 +13703,10 @@
       <c r="E24">
         <v>17231</v>
       </c>
-      <c r="F24">
+      <c r="F24" t="s">
+        <v>333</v>
+      </c>
+      <c r="G24">
         <v>3</v>
       </c>
       <c r="H24">
@@ -13878,7 +13878,7 @@
         <v>41</v>
       </c>
       <c r="DE24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF24" t="s">
         <v>373</v>
@@ -14184,7 +14184,7 @@
         <v>0</v>
       </c>
       <c r="JG24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ24">
         <v>0</v>
@@ -14193,7 +14193,7 @@
         <v>0</v>
       </c>
       <c r="JL24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO24">
         <v>0</v>
@@ -14202,7 +14202,7 @@
         <v>0</v>
       </c>
       <c r="JQ24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:295">
@@ -14215,7 +14215,7 @@
       <c r="E25">
         <v>17130</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>4</v>
       </c>
       <c r="H25">
@@ -14387,7 +14387,7 @@
         <v>71</v>
       </c>
       <c r="DE25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF25" t="s">
         <v>373</v>
@@ -14642,7 +14642,7 @@
         <v>488</v>
       </c>
       <c r="IN25">
-        <v>57600</v>
+        <v>43200</v>
       </c>
       <c r="IO25">
         <v>1</v>
@@ -14693,7 +14693,7 @@
         <v>0</v>
       </c>
       <c r="JG25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ25">
         <v>0</v>
@@ -14702,7 +14702,7 @@
         <v>0</v>
       </c>
       <c r="JL25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO25">
         <v>0</v>
@@ -14711,7 +14711,7 @@
         <v>0</v>
       </c>
       <c r="JQ25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:295">
@@ -14724,11 +14724,11 @@
       <c r="E26">
         <v>17042</v>
       </c>
-      <c r="F26">
-        <v>4</v>
+      <c r="G26">
+        <v>3</v>
       </c>
       <c r="H26">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I26">
         <v>2</v>
@@ -14737,7 +14737,7 @@
         <v>2.6</v>
       </c>
       <c r="K26">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L26">
         <v>1</v>
@@ -14896,7 +14896,7 @@
         <v>52</v>
       </c>
       <c r="DE26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF26" t="s">
         <v>373</v>
@@ -15235,7 +15235,7 @@
         <v>52</v>
       </c>
       <c r="JG26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ26">
         <v>0</v>
@@ -15244,7 +15244,7 @@
         <v>0</v>
       </c>
       <c r="JL26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO26">
         <v>0</v>
@@ -15253,7 +15253,7 @@
         <v>0</v>
       </c>
       <c r="JQ26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:295">
@@ -15266,7 +15266,7 @@
       <c r="E27">
         <v>16829</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>4</v>
       </c>
       <c r="H27">
@@ -15423,7 +15423,7 @@
         <v>0</v>
       </c>
       <c r="DE27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF27" t="s">
         <v>373</v>
@@ -15615,7 +15615,7 @@
         <v>488</v>
       </c>
       <c r="IN27">
-        <v>43200</v>
+        <v>57600</v>
       </c>
       <c r="IO27">
         <v>1</v>
@@ -15666,7 +15666,7 @@
         <v>0</v>
       </c>
       <c r="JG27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ27">
         <v>0</v>
@@ -15675,7 +15675,7 @@
         <v>0</v>
       </c>
       <c r="JL27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO27">
         <v>0</v>
@@ -15684,7 +15684,7 @@
         <v>0</v>
       </c>
       <c r="JQ27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:295">
@@ -15697,11 +15697,11 @@
       <c r="E28">
         <v>15953</v>
       </c>
-      <c r="F28">
-        <v>4</v>
+      <c r="G28">
+        <v>3</v>
       </c>
       <c r="H28">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I28">
         <v>2</v>
@@ -15710,7 +15710,7 @@
         <v>2.6</v>
       </c>
       <c r="K28">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L28">
         <v>1</v>
@@ -15869,7 +15869,7 @@
         <v>55</v>
       </c>
       <c r="DE28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF28" t="s">
         <v>373</v>
@@ -16151,7 +16151,7 @@
         <v>488</v>
       </c>
       <c r="IN28">
-        <v>57600</v>
+        <v>86400</v>
       </c>
       <c r="IO28">
         <v>1</v>
@@ -16208,7 +16208,7 @@
         <v>55</v>
       </c>
       <c r="JG28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ28">
         <v>0</v>
@@ -16217,7 +16217,7 @@
         <v>0</v>
       </c>
       <c r="JL28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO28">
         <v>0</v>
@@ -16226,7 +16226,7 @@
         <v>0</v>
       </c>
       <c r="JQ28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:295">
@@ -16239,11 +16239,11 @@
       <c r="E29">
         <v>15873</v>
       </c>
-      <c r="F29">
-        <v>3</v>
+      <c r="G29">
+        <v>4</v>
       </c>
       <c r="H29">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I29">
         <v>2</v>
@@ -16252,7 +16252,7 @@
         <v>2.6</v>
       </c>
       <c r="K29">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L29">
         <v>1</v>
@@ -16411,7 +16411,7 @@
         <v>90</v>
       </c>
       <c r="DE29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF29" t="s">
         <v>373</v>
@@ -16639,7 +16639,7 @@
         <v>488</v>
       </c>
       <c r="IN29">
-        <v>86400</v>
+        <v>57600</v>
       </c>
       <c r="IO29">
         <v>1</v>
@@ -16696,7 +16696,7 @@
         <v>57</v>
       </c>
       <c r="JG29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ29">
         <v>0</v>
@@ -16705,7 +16705,7 @@
         <v>0</v>
       </c>
       <c r="JL29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO29">
         <v>0</v>
@@ -16714,7 +16714,7 @@
         <v>0</v>
       </c>
       <c r="JQ29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:295">
@@ -16727,11 +16727,11 @@
       <c r="E30">
         <v>15855</v>
       </c>
-      <c r="F30">
-        <v>4</v>
+      <c r="G30">
+        <v>3</v>
       </c>
       <c r="H30">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I30">
         <v>2</v>
@@ -16740,7 +16740,7 @@
         <v>2.6</v>
       </c>
       <c r="K30">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L30">
         <v>1</v>
@@ -16899,7 +16899,7 @@
         <v>41</v>
       </c>
       <c r="DE30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF30" t="s">
         <v>373</v>
@@ -17232,7 +17232,7 @@
         <v>0</v>
       </c>
       <c r="JG30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ30">
         <v>0</v>
@@ -17241,7 +17241,7 @@
         <v>0</v>
       </c>
       <c r="JL30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO30">
         <v>0</v>
@@ -17250,7 +17250,7 @@
         <v>0</v>
       </c>
       <c r="JQ30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JR30" t="s">
         <v>504</v>
@@ -17317,11 +17317,11 @@
       <c r="E31">
         <v>15737</v>
       </c>
-      <c r="F31">
-        <v>3</v>
+      <c r="G31">
+        <v>4</v>
       </c>
       <c r="H31">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I31">
         <v>2</v>
@@ -17330,7 +17330,7 @@
         <v>2.6</v>
       </c>
       <c r="K31">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L31">
         <v>1</v>
@@ -17474,7 +17474,7 @@
         <v>0</v>
       </c>
       <c r="DE31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF31" t="s">
         <v>373</v>
@@ -17717,7 +17717,7 @@
         <v>0</v>
       </c>
       <c r="JG31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ31">
         <v>0</v>
@@ -17726,7 +17726,7 @@
         <v>0</v>
       </c>
       <c r="JL31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO31">
         <v>0</v>
@@ -17735,7 +17735,7 @@
         <v>0</v>
       </c>
       <c r="JQ31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:295">
@@ -17748,7 +17748,7 @@
       <c r="E32">
         <v>15583</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>4</v>
       </c>
       <c r="H32">
@@ -17905,7 +17905,7 @@
         <v>0</v>
       </c>
       <c r="DE32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF32" t="s">
         <v>373</v>
@@ -18097,7 +18097,7 @@
         <v>488</v>
       </c>
       <c r="IN32">
-        <v>57600</v>
+        <v>86400</v>
       </c>
       <c r="IO32">
         <v>1</v>
@@ -18148,7 +18148,7 @@
         <v>0</v>
       </c>
       <c r="JG32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ32">
         <v>0</v>
@@ -18157,7 +18157,7 @@
         <v>0</v>
       </c>
       <c r="JL32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO32">
         <v>0</v>
@@ -18166,7 +18166,7 @@
         <v>0</v>
       </c>
       <c r="JQ32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:295">
@@ -18179,7 +18179,7 @@
       <c r="E33">
         <v>14594</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>3</v>
       </c>
       <c r="H33">
@@ -18351,7 +18351,7 @@
         <v>39</v>
       </c>
       <c r="DE33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF33" t="s">
         <v>373</v>
@@ -18633,7 +18633,7 @@
         <v>488</v>
       </c>
       <c r="IN33">
-        <v>43200</v>
+        <v>72000</v>
       </c>
       <c r="IO33">
         <v>1</v>
@@ -18684,7 +18684,7 @@
         <v>0</v>
       </c>
       <c r="JG33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ33">
         <v>0</v>
@@ -18693,7 +18693,7 @@
         <v>0</v>
       </c>
       <c r="JL33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO33">
         <v>0</v>
@@ -18702,7 +18702,7 @@
         <v>0</v>
       </c>
       <c r="JQ33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:295">
@@ -18715,7 +18715,7 @@
       <c r="E34">
         <v>14561</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>4</v>
       </c>
       <c r="H34">
@@ -18887,7 +18887,7 @@
         <v>52</v>
       </c>
       <c r="DE34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF34" t="s">
         <v>373</v>
@@ -19169,7 +19169,7 @@
         <v>488</v>
       </c>
       <c r="IN34">
-        <v>86400</v>
+        <v>43200</v>
       </c>
       <c r="IO34">
         <v>1</v>
@@ -19220,7 +19220,7 @@
         <v>0</v>
       </c>
       <c r="JG34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ34">
         <v>0</v>
@@ -19229,7 +19229,7 @@
         <v>0</v>
       </c>
       <c r="JL34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO34">
         <v>0</v>
@@ -19238,7 +19238,7 @@
         <v>0</v>
       </c>
       <c r="JQ34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JR34" t="s">
         <v>505</v>
@@ -19305,11 +19305,11 @@
       <c r="E35">
         <v>14145</v>
       </c>
-      <c r="F35">
-        <v>4</v>
+      <c r="G35">
+        <v>3</v>
       </c>
       <c r="H35">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I35">
         <v>2</v>
@@ -19318,7 +19318,7 @@
         <v>2.6</v>
       </c>
       <c r="K35">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L35">
         <v>1</v>
@@ -19462,7 +19462,7 @@
         <v>0</v>
       </c>
       <c r="DE35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF35" t="s">
         <v>373</v>
@@ -19654,7 +19654,7 @@
         <v>488</v>
       </c>
       <c r="IN35">
-        <v>72000</v>
+        <v>43200</v>
       </c>
       <c r="IO35">
         <v>1</v>
@@ -19705,7 +19705,7 @@
         <v>0</v>
       </c>
       <c r="JG35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ35">
         <v>0</v>
@@ -19714,7 +19714,7 @@
         <v>0</v>
       </c>
       <c r="JL35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO35">
         <v>0</v>
@@ -19723,7 +19723,7 @@
         <v>0</v>
       </c>
       <c r="JQ35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:295">
@@ -19736,14 +19736,14 @@
       <c r="E36">
         <v>14125</v>
       </c>
-      <c r="F36">
-        <v>4</v>
-      </c>
-      <c r="G36" t="s">
+      <c r="F36" t="s">
         <v>333</v>
       </c>
+      <c r="G36">
+        <v>3</v>
+      </c>
       <c r="H36">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I36">
         <v>2</v>
@@ -19752,7 +19752,7 @@
         <v>2.6</v>
       </c>
       <c r="K36">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L36">
         <v>1</v>
@@ -19896,7 +19896,7 @@
         <v>0</v>
       </c>
       <c r="DE36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF36" t="s">
         <v>373</v>
@@ -20088,7 +20088,7 @@
         <v>488</v>
       </c>
       <c r="IN36">
-        <v>86400</v>
+        <v>43200</v>
       </c>
       <c r="IO36">
         <v>1</v>
@@ -20139,7 +20139,7 @@
         <v>0</v>
       </c>
       <c r="JG36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ36">
         <v>0</v>
@@ -20148,7 +20148,7 @@
         <v>0</v>
       </c>
       <c r="JL36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO36">
         <v>0</v>
@@ -20157,7 +20157,7 @@
         <v>0</v>
       </c>
       <c r="JQ36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:295">
@@ -20170,14 +20170,11 @@
       <c r="E37">
         <v>14119</v>
       </c>
-      <c r="F37">
-        <v>4</v>
-      </c>
-      <c r="G37" t="s">
-        <v>333</v>
+      <c r="G37">
+        <v>3</v>
       </c>
       <c r="H37">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I37">
         <v>2</v>
@@ -20186,7 +20183,7 @@
         <v>2.6</v>
       </c>
       <c r="K37">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L37">
         <v>1</v>
@@ -20330,7 +20327,7 @@
         <v>0</v>
       </c>
       <c r="DE37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF37" t="s">
         <v>373</v>
@@ -20573,7 +20570,7 @@
         <v>0</v>
       </c>
       <c r="JG37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ37">
         <v>0</v>
@@ -20582,7 +20579,7 @@
         <v>0</v>
       </c>
       <c r="JL37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO37">
         <v>0</v>
@@ -20591,7 +20588,7 @@
         <v>0</v>
       </c>
       <c r="JQ37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:295">
@@ -20604,11 +20601,14 @@
       <c r="E38">
         <v>13668</v>
       </c>
-      <c r="F38">
-        <v>3</v>
+      <c r="F38" t="s">
+        <v>333</v>
+      </c>
+      <c r="G38">
+        <v>4</v>
       </c>
       <c r="H38">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I38">
         <v>2</v>
@@ -20617,7 +20617,7 @@
         <v>2.6</v>
       </c>
       <c r="K38">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L38">
         <v>1</v>
@@ -20761,7 +20761,7 @@
         <v>0</v>
       </c>
       <c r="DE38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF38" t="s">
         <v>373</v>
@@ -20953,7 +20953,7 @@
         <v>488</v>
       </c>
       <c r="IN38">
-        <v>86400</v>
+        <v>43200</v>
       </c>
       <c r="IO38">
         <v>1</v>
@@ -21004,7 +21004,7 @@
         <v>0</v>
       </c>
       <c r="JG38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ38">
         <v>0</v>
@@ -21013,7 +21013,7 @@
         <v>0</v>
       </c>
       <c r="JL38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO38">
         <v>0</v>
@@ -21022,7 +21022,7 @@
         <v>0</v>
       </c>
       <c r="JQ38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:295">
@@ -21035,11 +21035,11 @@
       <c r="E39">
         <v>13273</v>
       </c>
-      <c r="F39">
-        <v>4</v>
+      <c r="G39">
+        <v>3</v>
       </c>
       <c r="H39">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I39">
         <v>2</v>
@@ -21048,7 +21048,7 @@
         <v>2.6</v>
       </c>
       <c r="K39">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L39">
         <v>1</v>
@@ -21192,7 +21192,7 @@
         <v>0</v>
       </c>
       <c r="DE39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF39" t="s">
         <v>373</v>
@@ -21384,7 +21384,7 @@
         <v>488</v>
       </c>
       <c r="IN39">
-        <v>43200</v>
+        <v>72000</v>
       </c>
       <c r="IO39">
         <v>1</v>
@@ -21435,7 +21435,7 @@
         <v>0</v>
       </c>
       <c r="JG39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ39">
         <v>0</v>
@@ -21444,7 +21444,7 @@
         <v>0</v>
       </c>
       <c r="JL39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO39">
         <v>0</v>
@@ -21453,7 +21453,7 @@
         <v>0</v>
       </c>
       <c r="JQ39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:295">
@@ -21466,11 +21466,11 @@
       <c r="E40">
         <v>13127</v>
       </c>
-      <c r="F40">
-        <v>3</v>
+      <c r="G40">
+        <v>4</v>
       </c>
       <c r="H40">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I40">
         <v>2</v>
@@ -21479,7 +21479,7 @@
         <v>2.6</v>
       </c>
       <c r="K40">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L40">
         <v>1</v>
@@ -21638,7 +21638,7 @@
         <v>52</v>
       </c>
       <c r="DE40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF40" t="s">
         <v>373</v>
@@ -21971,7 +21971,7 @@
         <v>0</v>
       </c>
       <c r="JG40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ40">
         <v>0</v>
@@ -21980,7 +21980,7 @@
         <v>0</v>
       </c>
       <c r="JL40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO40">
         <v>0</v>
@@ -21989,7 +21989,7 @@
         <v>0</v>
       </c>
       <c r="JQ40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -22022,7 +22022,7 @@
         <v>508</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>509</v>
@@ -22141,7 +22141,7 @@
         <v>488</v>
       </c>
       <c r="S2">
-        <v>57600</v>
+        <v>86400</v>
       </c>
       <c r="T2">
         <v>1</v>
